--- a/2_semester/lab3/time.xlsx
+++ b/2_semester/lab3/time.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bzavo\Documents\01_LABS\labs\2_semester\lab3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BF957E-3921-4848-B856-CA6326E43CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -66,6 +72,2870 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Union</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>707</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>925</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1172</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2004-46CA-8967-2383305B6B4B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="260001376"/>
+        <c:axId val="342591568"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="260001376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="342591568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="342591568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="260001376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Complement</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>776</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1054</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1383</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1745</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4090-46DD-9DB2-A75950F96DAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="245872032"/>
+        <c:axId val="205365360"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="245872032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="205365360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="205365360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="245872032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Intersection</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$3:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$3:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>584</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>762</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>969</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EB68-4A8B-B9A3-A0BF865CBFDF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="414227904"/>
+        <c:axId val="414228320"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="414227904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="414228320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="414228320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="414227904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A35F4F98-8C07-43F2-8DDF-16B904B5F136}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C611228-3804-4CC4-B277-CF41D717C0CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB341E10-9981-4A84-AFE5-CCD22067C83B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +3200,197 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:I11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>1001</v>
+      </c>
+      <c r="C3">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>1001</v>
+      </c>
+      <c r="F3">
+        <v>23</v>
+      </c>
+      <c r="H3">
+        <v>1001</v>
+      </c>
+      <c r="I3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>2001</v>
+      </c>
+      <c r="C4">
+        <v>58</v>
+      </c>
+      <c r="E4">
+        <v>2001</v>
+      </c>
+      <c r="F4">
+        <v>89</v>
+      </c>
+      <c r="H4">
+        <v>2001</v>
+      </c>
+      <c r="I4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>3001</v>
+      </c>
+      <c r="C5">
+        <v>129</v>
+      </c>
+      <c r="E5">
+        <v>3001</v>
+      </c>
+      <c r="F5">
+        <v>199</v>
+      </c>
+      <c r="H5">
+        <v>3001</v>
+      </c>
+      <c r="I5">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>4001</v>
+      </c>
+      <c r="C6">
+        <v>229</v>
+      </c>
+      <c r="E6">
+        <v>4001</v>
+      </c>
+      <c r="F6">
+        <v>349</v>
+      </c>
+      <c r="H6">
+        <v>4001</v>
+      </c>
+      <c r="I6">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>5001</v>
+      </c>
+      <c r="C7">
+        <v>412</v>
+      </c>
+      <c r="E7">
+        <v>5001</v>
+      </c>
+      <c r="F7">
+        <v>541</v>
+      </c>
+      <c r="H7">
+        <v>5001</v>
+      </c>
+      <c r="I7">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>6001</v>
+      </c>
+      <c r="C8">
+        <v>520</v>
+      </c>
+      <c r="E8">
+        <v>6001</v>
+      </c>
+      <c r="F8">
+        <v>776</v>
+      </c>
+      <c r="H8">
+        <v>6001</v>
+      </c>
+      <c r="I8">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>7001</v>
+      </c>
+      <c r="C9">
+        <v>707</v>
+      </c>
+      <c r="E9">
+        <v>7001</v>
+      </c>
+      <c r="F9">
+        <v>1054</v>
+      </c>
+      <c r="H9">
+        <v>7001</v>
+      </c>
+      <c r="I9">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>8001</v>
+      </c>
+      <c r="C10">
+        <v>925</v>
+      </c>
+      <c r="E10">
+        <v>8001</v>
+      </c>
+      <c r="F10">
+        <v>1383</v>
+      </c>
+      <c r="H10">
+        <v>8001</v>
+      </c>
+      <c r="I10">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>9001</v>
+      </c>
+      <c r="C11">
+        <v>1172</v>
+      </c>
+      <c r="E11">
+        <v>9001</v>
+      </c>
+      <c r="F11">
+        <v>1745</v>
+      </c>
+      <c r="H11">
+        <v>9001</v>
+      </c>
+      <c r="I11">
+        <v>969</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>